--- a/TDA_db_layout.xlsx
+++ b/TDA_db_layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuza\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuza\git\nextjs\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3377B3-522C-44DD-A7EA-2FBCC3A87E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859706DA-AD2C-4CE7-B2C3-875820E3C9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD66B829-A382-4C75-BE73-FE0136250B3D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{FD66B829-A382-4C75-BE73-FE0136250B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>id (primary key autoincerment)</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>languages_id (foreign key)</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -243,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -560,10 +564,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,14 +663,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
@@ -677,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
@@ -686,9 +690,10 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -707,11 +712,14 @@
       <c r="G23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
@@ -719,7 +727,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
